--- a/heritages.xlsx
+++ b/heritages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Documents/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:4000b_{A5CD1DB2-FE03-4DFE-95F1-8A490243CE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42E0F95C-DCCC-428D-852B-1D038C102AEF}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:4000b_{A5CD1DB2-FE03-4DFE-95F1-8A490243CE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3CB2742-C652-4982-8A75-2DBBC03BD614}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="288">
   <si>
     <t>_className</t>
   </si>
@@ -895,6 +895,15 @@
   </si>
   <si>
     <t>worn items</t>
+  </si>
+  <si>
+    <t>sourceBook</t>
+  </si>
+  <si>
+    <t>Character Guide</t>
+  </si>
+  <si>
+    <t>Pathfinder #153: Life's Long Shadow</t>
   </si>
 </sst>
 </file>
@@ -1741,13 +1750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD58"/>
+  <dimension ref="A1:DE58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1755,1417 +1764,1443 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>218</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>93</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>104</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="AJ2" t="s">
+      <c r="J2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="AK2" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>110</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="T3" t="s">
+      <c r="J3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="U3" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>106</v>
+      <c r="AG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
       </c>
       <c r="AI3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>117</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>118</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>119</v>
       </c>
-      <c r="BD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
         <v>120</v>
       </c>
-      <c r="BF3" t="s">
-        <v>106</v>
-      </c>
       <c r="BG3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH3" t="s">
         <v>119</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>2</v>
       </c>
-      <c r="BI3" t="s">
-        <v>106</v>
-      </c>
       <c r="BJ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
       <c r="K4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="AF4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="AG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="BK5" t="s">
+      <c r="J5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="BL5" t="s">
         <v>125</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>126</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>127</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BZ5" t="s">
         <v>125</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="CA5" t="s">
         <v>128</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="CB5" t="s">
         <v>129</v>
       </c>
-      <c r="CM5" t="s">
+      <c r="CN5" t="s">
         <v>125</v>
       </c>
-      <c r="CN5" t="s">
+      <c r="CO5" t="s">
         <v>130</v>
       </c>
-      <c r="CO5" t="s">
+      <c r="CP5" t="s">
         <v>131</v>
       </c>
-      <c r="DA5" t="s">
+      <c r="DB5" t="s">
         <v>125</v>
       </c>
-      <c r="DB5" t="s">
+      <c r="DC5" t="s">
         <v>132</v>
       </c>
-      <c r="DC5" t="s">
+      <c r="DD5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
       <c r="K6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="AF6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="AG6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
       <c r="K7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N7" t="s">
-        <v>106</v>
-      </c>
       <c r="O7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R7" t="s">
-        <v>106</v>
-      </c>
       <c r="S7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="T7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
       <c r="K8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="AF8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="AG8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
       <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="AF9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="AG9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="AF10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>106</v>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="AG10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
       <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="AF11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="AG11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="AZ12" t="s">
+      <c r="J12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="BA12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="C13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J13" t="s">
-        <v>106</v>
-      </c>
       <c r="K13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="AF13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="AG13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J14" t="s">
-        <v>106</v>
-      </c>
       <c r="K14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="AF14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="AG14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP14" t="s">
         <v>157</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>158</v>
       </c>
-      <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="s">
         <v>159</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>158</v>
       </c>
-      <c r="AU14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" t="s">
+      <c r="AV14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
         <v>160</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>155</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J15" t="s">
-        <v>106</v>
-      </c>
       <c r="K15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="AF15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="AG15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J16" t="s">
-        <v>106</v>
-      </c>
       <c r="K16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N16" t="s">
-        <v>106</v>
-      </c>
       <c r="O16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="AF16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="AG16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="AJ17" t="s">
+      <c r="J17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="AK17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="AJ18" t="s">
+      <c r="J18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="AK18" t="s">
         <v>169</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>157</v>
       </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="s">
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="s">
         <v>158</v>
       </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="s">
         <v>171</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>169</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>172</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>157</v>
       </c>
-      <c r="DD18" t="s">
+      <c r="DE18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
-        <v>106</v>
-      </c>
       <c r="K19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="AF19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="AG19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="AZ20" t="s">
+      <c r="J20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="BA20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
       <c r="K21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="AF21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="AG21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="BL22" t="s">
+      <c r="J22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="BM22" t="s">
         <v>181</v>
       </c>
-      <c r="BM22" t="s">
+      <c r="BN22" t="s">
         <v>182</v>
       </c>
-      <c r="BN22" t="s">
+      <c r="BO22" t="s">
         <v>157</v>
       </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
-      <c r="BP22" t="s">
+      <c r="BP22">
+        <v>1</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>158</v>
       </c>
-      <c r="BQ22">
-        <v>1</v>
-      </c>
-      <c r="BR22" t="s">
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22" t="s">
         <v>183</v>
       </c>
-      <c r="BV22" t="s">
+      <c r="BW22" t="s">
         <v>180</v>
       </c>
-      <c r="BW22" t="s">
+      <c r="BX22" t="s">
         <v>182</v>
       </c>
-      <c r="BX22" t="s">
+      <c r="BY22" t="s">
         <v>157</v>
       </c>
-      <c r="BZ22" t="s">
+      <c r="CA22" t="s">
         <v>184</v>
       </c>
-      <c r="CA22" t="s">
+      <c r="CB22" t="s">
         <v>185</v>
       </c>
-      <c r="CB22" t="s">
+      <c r="CC22" t="s">
         <v>157</v>
       </c>
-      <c r="CC22">
-        <v>1</v>
-      </c>
-      <c r="CD22" t="s">
+      <c r="CD22">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="s">
         <v>158</v>
       </c>
-      <c r="CE22">
-        <v>1</v>
-      </c>
-      <c r="CF22" t="s">
+      <c r="CF22">
+        <v>1</v>
+      </c>
+      <c r="CG22" t="s">
         <v>186</v>
       </c>
-      <c r="CJ22" t="s">
+      <c r="CK22" t="s">
         <v>180</v>
       </c>
-      <c r="CK22" t="s">
+      <c r="CL22" t="s">
         <v>185</v>
       </c>
-      <c r="CL22" t="s">
+      <c r="CM22" t="s">
         <v>157</v>
       </c>
-      <c r="CN22" t="s">
+      <c r="CO22" t="s">
         <v>187</v>
       </c>
-      <c r="CO22" t="s">
+      <c r="CP22" t="s">
         <v>188</v>
       </c>
-      <c r="CP22" t="s">
+      <c r="CQ22" t="s">
         <v>157</v>
       </c>
-      <c r="CQ22">
-        <v>1</v>
-      </c>
-      <c r="CR22" t="s">
+      <c r="CR22">
+        <v>1</v>
+      </c>
+      <c r="CS22" t="s">
         <v>158</v>
       </c>
-      <c r="CS22">
-        <v>1</v>
-      </c>
-      <c r="CT22" t="s">
+      <c r="CT22">
+        <v>1</v>
+      </c>
+      <c r="CU22" t="s">
         <v>189</v>
       </c>
-      <c r="CX22" t="s">
+      <c r="CY22" t="s">
         <v>180</v>
       </c>
-      <c r="CY22" t="s">
+      <c r="CZ22" t="s">
         <v>188</v>
       </c>
-      <c r="CZ22" t="s">
+      <c r="DA22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J23" t="s">
-        <v>106</v>
-      </c>
       <c r="K23" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="Q23" s="2"/>
-      <c r="AF23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="AG23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J24" t="s">
-        <v>106</v>
-      </c>
       <c r="K24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N24" t="s">
-        <v>106</v>
-      </c>
       <c r="O24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="AF24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="P24" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="AG24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="AM25" t="s">
+      <c r="J25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="AN25" t="s">
         <v>220</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J26" t="s">
-        <v>106</v>
-      </c>
       <c r="K26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="Q26" s="2"/>
-      <c r="AF26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L26" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="AG26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
       <c r="B27" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J27" t="s">
-        <v>106</v>
-      </c>
       <c r="K27" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N27" t="s">
-        <v>106</v>
-      </c>
       <c r="O27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="AF27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="AG27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>210</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -3179,50 +3214,50 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
-      <c r="AF28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI28" s="4"/>
-    </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
       <c r="B29" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="s">
+      <c r="G29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -3236,49 +3271,49 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="G30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -3292,49 +3327,49 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>228</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="G31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -3348,49 +3383,49 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="G32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -3404,49 +3439,52 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>230</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="G33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="6"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -3460,39 +3498,39 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -3509,43 +3547,43 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AZ34" t="s">
+      <c r="AI34" s="4"/>
+      <c r="BA34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="G35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="6"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -3559,39 +3597,42 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
       <c r="B36" t="s">
         <v>239</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="6"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -3608,51 +3649,54 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
-      <c r="AJ36" t="s">
+      <c r="AI36" s="4"/>
+      <c r="AK36" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="G37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="O37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -3666,49 +3710,52 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>241</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="G38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="6"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -3722,57 +3769,60 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AF38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>106</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="G39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="O39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="6"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -3786,57 +3836,60 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="G40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="O40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="6"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -3850,330 +3903,198 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>106</v>
       </c>
       <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="BA41" t="s">
+        <v>193</v>
+      </c>
+      <c r="DE41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="BA42" t="s">
+        <v>193</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="BB43" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC43">
+        <v>1</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI43">
+        <v>2</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="AG44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="AG45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AZ41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>247</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="6"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -4187,60 +4108,49 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="BA46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>286</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>106</v>
+        <v>265</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="6"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -4254,39 +4164,58 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="4"/>
+      <c r="I48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="5"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="6"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
@@ -4301,45 +4230,51 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-      <c r="AJ48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AG48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>274</v>
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>106</v>
+        <v>268</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="5"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="6"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
@@ -4353,49 +4288,60 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>106</v>
+        <v>269</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="6"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
@@ -4409,52 +4355,52 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>286</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>106</v>
+        <v>270</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="5"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="6"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
@@ -4468,57 +4414,63 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>277</v>
+        <v>250</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>106</v>
+        <v>272</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>106</v>
+        <v>106</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="6"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -4532,57 +4484,42 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>278</v>
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>286</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="6"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
@@ -4596,166 +4533,325 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AK53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="AZ54" t="s">
-        <v>193</v>
-      </c>
-      <c r="DD54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:108" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="AZ55" t="s">
-        <v>193</v>
-      </c>
-      <c r="DD55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:108" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="BA56" t="s">
-        <v>118</v>
-      </c>
-      <c r="BB56">
-        <v>1</v>
-      </c>
-      <c r="BC56" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH56">
-        <v>2</v>
-      </c>
-      <c r="BI56" t="s">
-        <v>197</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:108" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="AF57" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:108" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J58" t="s">
-        <v>106</v>
-      </c>
-      <c r="K58" t="s">
-        <v>116</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="AF58" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4766,13 +4862,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BF108"/>
+  <dimension ref="A1:BF109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AY67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BA68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:BF108"/>
+      <selection pane="bottomRight" sqref="A1:BF109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4799,11 +4895,12 @@
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="53" width="36.7109375" customWidth="1"/>
-    <col min="54" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="40" width="36.7109375" customWidth="1"/>
+    <col min="41" max="42" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="58" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
@@ -5104,1122 +5201,1154 @@
         <v>243</v>
       </c>
       <c r="AO2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT2" t="s">
         <v>244</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AU2" t="s">
         <v>245</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
         <v>246</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>247</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>248</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>249</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AZ2" t="s">
         <v>250</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BA2" t="s">
         <v>251</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BB2" t="s">
         <v>252</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BC2" t="s">
         <v>253</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BD2" t="s">
         <v>254</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BE2" t="s">
         <v>255</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BF2" t="s">
         <v>256</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>286</v>
       </c>
       <c r="BB3" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="BC3" t="s">
-        <v>195</v>
+        <v>287</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>287</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="AO5" t="s">
         <v>190</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="AP5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AU6" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AV6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AW6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AX6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AY6" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="BA6" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="BB6" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="BE6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BF6" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" t="s">
-        <v>114</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="W6" t="s">
-        <v>114</v>
-      </c>
-      <c r="X6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
+      <c r="AI7" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
+      <c r="AK7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>114</v>
+      </c>
       <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
+      <c r="AU7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="BA7" s="4"/>
-      <c r="BE7">
-        <v>1</v>
+      <c r="BB7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD10" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AF10" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AG10" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5" t="s">
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5" t="s">
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AL10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AM9" s="5" t="s">
+      <c r="AM10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AN10" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5" t="s">
+      <c r="AS10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AQ9" s="5" t="s">
+      <c r="AV10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AR9" s="5" t="s">
+      <c r="AW10" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AS9" s="5" t="s">
+      <c r="AX10" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AT9" s="5" t="s">
+      <c r="AY10" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AU9" s="5" t="s">
+      <c r="AZ10" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5" t="s">
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AX9" s="5" t="s">
+      <c r="BC10" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AY9" s="5" t="s">
+      <c r="BD10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="AZ9" s="5" t="s">
+      <c r="BE10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="BA9" s="5" t="s">
+      <c r="BF10" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" t="s">
-        <v>106</v>
-      </c>
-      <c r="U10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X10" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Z11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AA11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT11" s="4"/>
       <c r="AU11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV11" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AW11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF12" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3" t="s">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5" t="s">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5" t="s">
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AN13" s="5" t="s">
+      <c r="AN14" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5" t="s">
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5" t="s">
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5" t="s">
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="BA13" s="5" t="s">
+      <c r="BF14" s="5" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" t="s">
-        <v>106</v>
-      </c>
-      <c r="X14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -6231,43 +6360,52 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AT15" s="4"/>
-      <c r="AU15" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
+      <c r="AX15" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA15" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF15" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>116</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -6278,98 +6416,112 @@
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
+      <c r="AK16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
+      <c r="AM16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
+      <c r="AX16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
+      <c r="AZ16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="BA16" s="4"/>
-    </row>
-    <row r="17" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+    </row>
+    <row r="18" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -6384,11 +6536,6 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
@@ -6397,13 +6544,18 @@
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -6418,11 +6570,6 @@
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
@@ -6431,10 +6578,18 @@
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -6449,11 +6604,6 @@
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
@@ -6462,10 +6612,15 @@
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -6480,11 +6635,6 @@
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
@@ -6493,10 +6643,15 @@
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -6511,11 +6666,6 @@
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
@@ -6524,10 +6674,15 @@
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -6542,11 +6697,6 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
@@ -6555,10 +6705,15 @@
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -6573,11 +6728,6 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
@@ -6586,10 +6736,15 @@
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -6604,11 +6759,6 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
@@ -6617,10 +6767,15 @@
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -6635,11 +6790,6 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
@@ -6648,10 +6798,15 @@
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -6666,11 +6821,6 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
@@ -6679,10 +6829,15 @@
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -6697,11 +6852,6 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
@@ -6710,10 +6860,15 @@
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -6728,11 +6883,6 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
@@ -6741,10 +6891,15 @@
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -6759,11 +6914,6 @@
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
@@ -6772,1080 +6922,1116 @@
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" t="s">
-        <v>116</v>
-      </c>
-      <c r="N32" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" t="s">
-        <v>116</v>
-      </c>
-      <c r="P32" t="s">
-        <v>116</v>
-      </c>
-      <c r="S32" t="s">
-        <v>116</v>
-      </c>
-      <c r="U32" t="s">
-        <v>116</v>
-      </c>
-      <c r="W32" t="s">
-        <v>116</v>
-      </c>
-      <c r="X32" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU32" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
       <c r="AV32" s="4"/>
-      <c r="AW32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>116</v>
-      </c>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33" t="s">
+        <v>116</v>
+      </c>
+      <c r="U33" t="s">
+        <v>116</v>
+      </c>
+      <c r="W33" t="s">
+        <v>116</v>
+      </c>
+      <c r="X33" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="4">
-        <v>0</v>
+      <c r="AI33" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE33">
-        <v>0</v>
-      </c>
-      <c r="BF33">
-        <v>0</v>
+      <c r="AK33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF33" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" t="s">
-        <v>106</v>
-      </c>
-      <c r="M34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P34" t="s">
-        <v>106</v>
-      </c>
-      <c r="S34" t="s">
-        <v>106</v>
-      </c>
-      <c r="U34" t="s">
-        <v>106</v>
-      </c>
-      <c r="W34" t="s">
-        <v>106</v>
-      </c>
-      <c r="X34" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG34" s="4" t="s">
-        <v>106</v>
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>0</v>
       </c>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4" t="s">
-        <v>106</v>
+      <c r="AI34" s="4">
+        <v>0</v>
       </c>
       <c r="AJ34" s="4"/>
-      <c r="AK34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>106</v>
+      <c r="AK34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>106</v>
+      </c>
+      <c r="S35" t="s">
+        <v>106</v>
+      </c>
+      <c r="U35" t="s">
+        <v>106</v>
+      </c>
+      <c r="W35" t="s">
+        <v>106</v>
+      </c>
+      <c r="X35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>147</v>
       </c>
-      <c r="AB35" s="4"/>
-      <c r="BE35" t="s">
+      <c r="AB36" s="4"/>
+      <c r="AR36" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>167</v>
-      </c>
-      <c r="R36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>167</v>
+      </c>
+      <c r="R37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>266</v>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y40" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>284</v>
+        <v>220</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" t="s">
-        <v>157</v>
-      </c>
-      <c r="R41" t="s">
-        <v>157</v>
+        <v>219</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="N42" t="s">
+        <v>157</v>
+      </c>
+      <c r="R42" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" t="s">
-        <v>158</v>
-      </c>
-      <c r="R43" t="s">
-        <v>158</v>
+        <v>39</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" t="s">
-        <v>159</v>
-      </c>
-      <c r="R45" t="s">
-        <v>171</v>
+        <v>41</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N46" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="R46" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="N47" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N50" t="s">
         <v>155</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R51" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N52" t="s">
         <v>157</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L53" t="s">
         <v>152</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S53" t="s">
         <v>175</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T53" t="s">
         <v>152</v>
       </c>
-      <c r="AH52" t="s">
+      <c r="AH53" t="s">
         <v>193</v>
       </c>
-      <c r="AO52" t="s">
+      <c r="AO53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT53" t="s">
         <v>152</v>
       </c>
-      <c r="AX52" t="s">
+      <c r="BC53" t="s">
         <v>175</v>
       </c>
-      <c r="BB52" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>118</v>
       </c>
-      <c r="BD53" t="s">
+      <c r="AQ54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="BD54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>119</v>
       </c>
-      <c r="BD55" t="s">
+      <c r="AQ56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="C58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>2</v>
       </c>
-      <c r="BD60">
+      <c r="AQ61">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD61" t="s">
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ62" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>117</v>
       </c>
-      <c r="BD62" t="s">
+      <c r="AQ63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" t="s">
-        <v>126</v>
-      </c>
-      <c r="V64" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
       </c>
       <c r="V66" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="V67">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="V67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="V68" t="s">
-        <v>158</v>
+        <v>64</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="V69">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="V69" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="V70" t="s">
-        <v>183</v>
+        <v>66</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="V71" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="V74" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V76" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="V77" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
-      </c>
-      <c r="V78" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
       </c>
       <c r="V80" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="V81">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="V81" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="V82" t="s">
-        <v>158</v>
+        <v>78</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="V83">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="V83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="V84" t="s">
-        <v>186</v>
+        <v>80</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="V85" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="V88" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V89" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V90" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" t="s">
-        <v>125</v>
+        <v>87</v>
+      </c>
+      <c r="V91" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
-      </c>
-      <c r="V92" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>131</v>
       </c>
       <c r="V94" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="V95">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="V95" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>92</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>93</v>
       </c>
-      <c r="V96" t="s">
+      <c r="V97" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>94</v>
       </c>
-      <c r="V97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="V98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>95</v>
       </c>
-      <c r="V98" t="s">
+      <c r="V99" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="V102" t="s">
+      <c r="V103" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
-      <c r="V103" t="s">
+      <c r="V104" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>101</v>
       </c>
-      <c r="V104" t="s">
+      <c r="V105" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>102</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>103</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>104</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="R108" t="s">
+      <c r="R109" t="s">
         <v>173</v>
       </c>
-      <c r="BB108" t="s">
+      <c r="AO109" t="s">
         <v>191</v>
       </c>
-      <c r="BC108" t="s">
+      <c r="AP109" t="s">
         <v>195</v>
       </c>
     </row>
